--- a/input_times.xlsx
+++ b/input_times.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Option Backtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD38DD68-8A7B-4DC5-BE36-68B867E32FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E42C835-41FB-47AD-86CC-6DC8CFFD9FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,8 +62,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,7 +77,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,17 +136,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,459 +448,459 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>45903</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A2" s="3">
+        <v>46042</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>45903</v>
+        <v>46042</v>
       </c>
       <c r="B3" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>45904</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A4" s="3">
+        <v>46042</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>45904</v>
+        <v>46042</v>
       </c>
       <c r="B5" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>45905</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A6" s="3">
+        <v>46035</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>45905</v>
+        <v>46035</v>
       </c>
       <c r="B7" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45908</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A8" s="3">
+        <v>46035</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>45908</v>
+        <v>46035</v>
       </c>
       <c r="B9" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>45909</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A10" s="3">
+        <v>46028</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>45909</v>
+        <v>46028</v>
       </c>
       <c r="B11" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45910</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A12" s="3">
+        <v>46028</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>45910</v>
+        <v>46028</v>
       </c>
       <c r="B13" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>45911</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A14" s="3">
+        <v>46021</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>45911</v>
+        <v>46021</v>
       </c>
       <c r="B15" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45912</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A16" s="3">
+        <v>46021</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>45912</v>
+        <v>46021</v>
       </c>
       <c r="B17" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45915</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A18" s="3">
+        <v>46014</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>45915</v>
+        <v>46014</v>
       </c>
       <c r="B19" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>45916</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A20" s="3">
+        <v>46014</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>45916</v>
+        <v>46014</v>
       </c>
       <c r="B21" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>45917</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A22" s="3">
+        <v>46007</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>45917</v>
+        <v>46007</v>
       </c>
       <c r="B23" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>45918</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A24" s="3">
+        <v>46007</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>45918</v>
+        <v>46007</v>
       </c>
       <c r="B25" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>45919</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A26" s="3">
+        <v>46000</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>45919</v>
+        <v>46000</v>
       </c>
       <c r="B27" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>45922</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A28" s="3">
+        <v>46000</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>45922</v>
+        <v>46000</v>
       </c>
       <c r="B29" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>45923</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A30" s="3">
+        <v>45993</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>45923</v>
+        <v>45993</v>
       </c>
       <c r="B31" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>45924</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A32" s="3">
+        <v>45993</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>45924</v>
+        <v>45993</v>
       </c>
       <c r="B33" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>45925</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A34" s="3">
+        <v>45986</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>45925</v>
+        <v>45986</v>
       </c>
       <c r="B35" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>45926</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A36" s="3">
+        <v>45986</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>45926</v>
+        <v>45986</v>
       </c>
       <c r="B37" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>45929</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A38" s="3">
+        <v>45979</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>45929</v>
+        <v>45979</v>
       </c>
       <c r="B39" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>45930</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A40" s="3">
+        <v>45979</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>45930</v>
+        <v>45979</v>
       </c>
       <c r="B41" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>45931</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A42" s="3">
+        <v>45972</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>45931</v>
+        <v>45972</v>
       </c>
       <c r="B43" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>45933</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A44" s="3">
+        <v>45972</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>45933</v>
+        <v>45972</v>
       </c>
       <c r="B45" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>45936</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A46" s="3">
+        <v>45965</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>45936</v>
+        <v>45965</v>
       </c>
       <c r="B47" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>45937</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A48" s="3">
+        <v>45965</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>45937</v>
+        <v>45965</v>
       </c>
       <c r="B49" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>45938</v>
-      </c>
-      <c r="B50" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A50" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>45938</v>
+        <v>45958</v>
       </c>
       <c r="B51" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>45939</v>
-      </c>
-      <c r="B52" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A52" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>45939</v>
+        <v>45958</v>
       </c>
       <c r="B53" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>45940</v>
-      </c>
-      <c r="B54" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A54" s="3">
+        <v>45951</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>45940</v>
+        <v>45951</v>
       </c>
       <c r="B55" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>45943</v>
-      </c>
-      <c r="B56" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A56" s="3">
+        <v>45951</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>45943</v>
+        <v>45951</v>
       </c>
       <c r="B57" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>45944</v>
       </c>
-      <c r="B58" s="3">
-        <v>0.62430555555555556</v>
+      <c r="B58" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,519 +908,215 @@
         <v>45944</v>
       </c>
       <c r="B59" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>45945</v>
-      </c>
-      <c r="B60" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A60" s="3">
+        <v>45944</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="B61" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>45946</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A62" s="3">
+        <v>45937</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>45946</v>
+        <v>45937</v>
       </c>
       <c r="B63" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>45947</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A64" s="3">
+        <v>45937</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>45947</v>
+        <v>45937</v>
       </c>
       <c r="B65" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>45950</v>
-      </c>
-      <c r="B66" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A66" s="3">
+        <v>45930</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>45950</v>
+        <v>45930</v>
       </c>
       <c r="B67" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>45953</v>
-      </c>
-      <c r="B68" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A68" s="3">
+        <v>45930</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>45953</v>
+        <v>45930</v>
       </c>
       <c r="B69" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>45954</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A70" s="3">
+        <v>45923</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>45954</v>
+        <v>45923</v>
       </c>
       <c r="B71" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>45957</v>
-      </c>
-      <c r="B72" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A72" s="3">
+        <v>45923</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>45957</v>
+        <v>45923</v>
       </c>
       <c r="B73" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>45958</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A74" s="3">
+        <v>45916</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>45958</v>
+        <v>45916</v>
       </c>
       <c r="B75" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>45959</v>
-      </c>
-      <c r="B76" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A76" s="3">
+        <v>45916</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>45959</v>
+        <v>45916</v>
       </c>
       <c r="B77" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>45960</v>
-      </c>
-      <c r="B78" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A78" s="3">
+        <v>45909</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>45960</v>
+        <v>45909</v>
       </c>
       <c r="B79" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>45961</v>
-      </c>
-      <c r="B80" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A80" s="3">
+        <v>45909</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>45961</v>
+        <v>45909</v>
       </c>
       <c r="B81" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>45964</v>
-      </c>
-      <c r="B82" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A82" s="3">
+        <v>45902</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>45964</v>
+        <v>45902</v>
       </c>
       <c r="B83" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
-        <v>45965</v>
-      </c>
-      <c r="B84" s="3">
-        <v>0.62430555555555556</v>
+      <c r="A84" s="3">
+        <v>45902</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>45965</v>
+        <v>45902</v>
       </c>
       <c r="B85" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>45967</v>
-      </c>
-      <c r="B86" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>45967</v>
-      </c>
-      <c r="B87" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>45968</v>
-      </c>
-      <c r="B88" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>45968</v>
-      </c>
-      <c r="B89" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>45971</v>
-      </c>
-      <c r="B90" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>45971</v>
-      </c>
-      <c r="B91" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>45972</v>
-      </c>
-      <c r="B92" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>45972</v>
-      </c>
-      <c r="B93" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>45973</v>
-      </c>
-      <c r="B94" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>45973</v>
-      </c>
-      <c r="B95" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
-        <v>45974</v>
-      </c>
-      <c r="B96" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>45974</v>
-      </c>
-      <c r="B97" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>45975</v>
-      </c>
-      <c r="B98" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
-        <v>45975</v>
-      </c>
-      <c r="B99" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>45978</v>
-      </c>
-      <c r="B100" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
-        <v>45978</v>
-      </c>
-      <c r="B101" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>45979</v>
-      </c>
-      <c r="B102" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
-        <v>45979</v>
-      </c>
-      <c r="B103" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>45980</v>
-      </c>
-      <c r="B104" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
-        <v>45980</v>
-      </c>
-      <c r="B105" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
-        <v>45981</v>
-      </c>
-      <c r="B106" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
-        <v>45981</v>
-      </c>
-      <c r="B107" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
-        <v>45982</v>
-      </c>
-      <c r="B108" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
-        <v>45982</v>
-      </c>
-      <c r="B109" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
-        <v>45985</v>
-      </c>
-      <c r="B110" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
-        <v>45985</v>
-      </c>
-      <c r="B111" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
-        <v>45986</v>
-      </c>
-      <c r="B112" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
-        <v>45986</v>
-      </c>
-      <c r="B113" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
-        <v>45987</v>
-      </c>
-      <c r="B114" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
-        <v>45987</v>
-      </c>
-      <c r="B115" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
-        <v>45988</v>
-      </c>
-      <c r="B116" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
-        <v>45988</v>
-      </c>
-      <c r="B117" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
-        <v>45989</v>
-      </c>
-      <c r="B118" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
-        <v>45989</v>
-      </c>
-      <c r="B119" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
-        <v>45992</v>
-      </c>
-      <c r="B120" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
-        <v>45992</v>
-      </c>
-      <c r="B121" s="6">
-        <v>0.62777777777777777</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
-        <v>45993</v>
-      </c>
-      <c r="B122" s="3">
-        <v>0.62430555555555556</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
-        <v>45993</v>
-      </c>
-      <c r="B123" s="6">
-        <v>0.62777777777777777</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
   </sheetData>
